--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Dkk4</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Dkk4</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H2">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I2">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>0.150777602085</v>
+        <v>0.6069409760700001</v>
       </c>
       <c r="R2">
-        <v>1.356998418765</v>
+        <v>5.46246878463</v>
       </c>
       <c r="S2">
-        <v>0.02728595970854741</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="T2">
-        <v>0.02728595970854741</v>
+        <v>0.1716721220213608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H3">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I3">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
-        <v>0.350376546415</v>
+        <v>1.035397109565</v>
       </c>
       <c r="R3">
-        <v>3.153388917735001</v>
+        <v>9.318573986084999</v>
       </c>
       <c r="S3">
-        <v>0.0634070325837261</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="T3">
-        <v>0.06340703258372611</v>
+        <v>0.2928601395225403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H4">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I4">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>0.23652617032</v>
+        <v>0.5139789823350001</v>
       </c>
       <c r="R4">
-        <v>2.12873553288</v>
+        <v>4.625810841015</v>
       </c>
       <c r="S4">
-        <v>0.04280372856526944</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="T4">
-        <v>0.04280372856526944</v>
+        <v>0.1453779956383313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H5">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I5">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>0.23926715046</v>
+        <v>0.35015297382</v>
       </c>
       <c r="R5">
-        <v>2.15340435414</v>
+        <v>3.15137676438</v>
       </c>
       <c r="S5">
-        <v>0.04329975896121516</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="T5">
-        <v>0.04329975896121516</v>
+        <v>0.09904011496636304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H6">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I6">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>0.111607336155</v>
+        <v>0.34069998222</v>
       </c>
       <c r="R6">
-        <v>1.004466025395</v>
+        <v>3.06629983998</v>
       </c>
       <c r="S6">
-        <v>0.02019738499214797</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="T6">
-        <v>0.02019738499214797</v>
+        <v>0.09636635393950013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.016035</v>
+        <v>0.047385</v>
       </c>
       <c r="H7">
-        <v>0.048105</v>
+        <v>0.142155</v>
       </c>
       <c r="I7">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.2528382213812677</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>0.30858647684</v>
+        <v>0.6882961246200001</v>
       </c>
       <c r="R7">
-        <v>2.77727829156</v>
+        <v>6.19466512158</v>
       </c>
       <c r="S7">
-        <v>0.05584435657036162</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="T7">
-        <v>0.05584435657036162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.047385</v>
-      </c>
-      <c r="H8">
-        <v>0.142155</v>
-      </c>
-      <c r="I8">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J8">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.403031</v>
-      </c>
-      <c r="N8">
-        <v>28.209093</v>
-      </c>
-      <c r="O8">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="P8">
-        <v>0.1079186507462474</v>
-      </c>
-      <c r="Q8">
-        <v>0.4455626239350001</v>
-      </c>
-      <c r="R8">
-        <v>4.010063615415</v>
-      </c>
-      <c r="S8">
-        <v>0.08063269103769999</v>
-      </c>
-      <c r="T8">
-        <v>0.08063269103769999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.047385</v>
-      </c>
-      <c r="H9">
-        <v>0.142155</v>
-      </c>
-      <c r="I9">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J9">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>21.85073566666667</v>
-      </c>
-      <c r="N9">
-        <v>65.55220700000001</v>
-      </c>
-      <c r="O9">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="P9">
-        <v>0.2507810418746436</v>
-      </c>
-      <c r="Q9">
-        <v>1.035397109565</v>
-      </c>
-      <c r="R9">
-        <v>9.318573986085001</v>
-      </c>
-      <c r="S9">
-        <v>0.1873740092909174</v>
-      </c>
-      <c r="T9">
-        <v>0.1873740092909175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.047385</v>
-      </c>
-      <c r="H10">
-        <v>0.142155</v>
-      </c>
-      <c r="I10">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J10">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.75061866666667</v>
-      </c>
-      <c r="N10">
-        <v>44.251856</v>
-      </c>
-      <c r="O10">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="P10">
-        <v>0.1692929507707757</v>
-      </c>
-      <c r="Q10">
-        <v>0.6989580655200001</v>
-      </c>
-      <c r="R10">
-        <v>6.290622589680001</v>
-      </c>
-      <c r="S10">
-        <v>0.1264892222055062</v>
-      </c>
-      <c r="T10">
-        <v>0.1264892222055062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.047385</v>
-      </c>
-      <c r="H11">
-        <v>0.142155</v>
-      </c>
-      <c r="I11">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J11">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.921556</v>
-      </c>
-      <c r="N11">
-        <v>44.764668</v>
-      </c>
-      <c r="O11">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="P11">
-        <v>0.171254799708155</v>
-      </c>
-      <c r="Q11">
-        <v>0.70705793106</v>
-      </c>
-      <c r="R11">
-        <v>6.36352137954</v>
-      </c>
-      <c r="S11">
-        <v>0.1279550407469399</v>
-      </c>
-      <c r="T11">
-        <v>0.1279550407469399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.047385</v>
-      </c>
-      <c r="H12">
-        <v>0.142155</v>
-      </c>
-      <c r="I12">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J12">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.960233</v>
-      </c>
-      <c r="N12">
-        <v>20.880699</v>
-      </c>
-      <c r="O12">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="P12">
-        <v>0.07988264148437943</v>
-      </c>
-      <c r="Q12">
-        <v>0.329810640705</v>
-      </c>
-      <c r="R12">
-        <v>2.968295766345</v>
-      </c>
-      <c r="S12">
-        <v>0.05968525649223146</v>
-      </c>
-      <c r="T12">
-        <v>0.05968525649223146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.047385</v>
-      </c>
-      <c r="H13">
-        <v>0.142155</v>
-      </c>
-      <c r="I13">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="J13">
-        <v>0.7471617786187322</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.24455733333333</v>
-      </c>
-      <c r="N13">
-        <v>57.733672</v>
-      </c>
-      <c r="O13">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="P13">
-        <v>0.2208699154157988</v>
-      </c>
-      <c r="Q13">
-        <v>0.91190334924</v>
-      </c>
-      <c r="R13">
-        <v>8.207130143160001</v>
-      </c>
-      <c r="S13">
-        <v>0.1650255588454372</v>
-      </c>
-      <c r="T13">
-        <v>0.1650255588454372</v>
+        <v>0.1946832739119044</v>
       </c>
     </row>
   </sheetData>
